--- a/1.2-SE-4347.501-DB/Grades.xlsx
+++ b/1.2-SE-4347.501-DB/Grades.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\SE-4347.501-DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDFall2018\1.2-SE-4347.501-DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36152B2E-AE77-4CA9-A201-F1DDB9A114FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4830" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5430" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,23 +417,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -470,23 +452,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,11 +627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +718,7 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
@@ -761,7 +726,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
@@ -795,7 +760,7 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
@@ -808,7 +773,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22">
         <f>SUM(C7:H7)</f>
-        <v>0.9474999999999999</v>
+        <v>0.93149999999999988</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="5"/>
@@ -825,7 +790,8 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="19">
-        <v>1</v>
+        <f>71/75</f>
+        <v>0.94666666666666666</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10">
@@ -841,13 +807,9 @@
         <v>2</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
+      <c r="D9" s="18"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="20">
-        <v>1</v>
-      </c>
+      <c r="F9" s="20"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="22"/>
@@ -860,13 +822,9 @@
         <v>3</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
+      <c r="D10" s="18"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="20">
-        <v>1</v>
-      </c>
+      <c r="F10" s="20"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="22"/>
@@ -879,13 +837,9 @@
         <v>4</v>
       </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="18">
-        <v>1</v>
-      </c>
+      <c r="D11" s="18"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="20">
-        <v>1</v>
-      </c>
+      <c r="F11" s="20"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="22"/>
@@ -898,13 +852,9 @@
         <v>5</v>
       </c>
       <c r="C12" s="20"/>
-      <c r="D12" s="18">
-        <v>1</v>
-      </c>
+      <c r="D12" s="18"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="20">
-        <v>1</v>
-      </c>
+      <c r="F12" s="20"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="22"/>
@@ -917,13 +867,9 @@
         <v>6</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="18">
-        <v>1</v>
-      </c>
+      <c r="D13" s="18"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="20">
-        <v>1</v>
-      </c>
+      <c r="F13" s="20"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="22"/>
@@ -936,13 +882,9 @@
         <v>7</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="18">
-        <v>1</v>
-      </c>
+      <c r="D14" s="18"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="20">
-        <v>1</v>
-      </c>
+      <c r="F14" s="20"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="22"/>
@@ -955,13 +897,9 @@
         <v>8</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="18">
-        <v>1</v>
-      </c>
+      <c r="D15" s="18"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="20">
-        <v>1</v>
-      </c>
+      <c r="F15" s="20"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="22"/>
@@ -974,13 +912,9 @@
         <v>9</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="18">
-        <v>1</v>
-      </c>
+      <c r="D16" s="18"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="20">
-        <v>1</v>
-      </c>
+      <c r="F16" s="20"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="22"/>
@@ -993,13 +927,9 @@
         <v>10</v>
       </c>
       <c r="C17" s="16"/>
-      <c r="D17" s="18">
-        <v>1</v>
-      </c>
+      <c r="D17" s="18"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="20">
-        <v>1</v>
-      </c>
+      <c r="F17" s="20"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="22"/>
@@ -1098,7 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1110,7 +1040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/1.2-SE-4347.501-DB/Grades.xlsx
+++ b/1.2-SE-4347.501-DB/Grades.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDFall2018\1.2-SE-4347.501-DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\1.2-SE-4347.501-DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C089DEB-0F30-41E6-90E7-302A422AF94A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5430" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="5430" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,6 +418,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -452,6 +470,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,11 +662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +753,7 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
@@ -752,7 +787,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -773,7 +808,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22">
         <f>SUM(C7:H7)</f>
-        <v>0.93149999999999988</v>
+        <v>0.92249999999999999</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="5"/>
@@ -786,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="21">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="19">
@@ -807,7 +842,9 @@
         <v>2</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="18">
+        <v>0.96</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="20"/>
       <c r="G9" s="12"/>
@@ -1028,7 +1065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1040,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/1.2-SE-4347.501-DB/Grades.xlsx
+++ b/1.2-SE-4347.501-DB/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\1.2-SE-4347.501-DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C089DEB-0F30-41E6-90E7-302A422AF94A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6D03B0-AF1D-4914-9291-7179F4F01B44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="5430" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,7 +666,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +753,7 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
@@ -787,7 +787,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.29099999999999998</v>
+        <v>0.27199999999999996</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -808,7 +808,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22">
         <f>SUM(C7:H7)</f>
-        <v>0.92249999999999999</v>
+        <v>0.90349999999999986</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="5"/>
@@ -859,7 +859,9 @@
         <v>3</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="18">
+        <v>0.5</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="20"/>
       <c r="G10" s="12"/>
@@ -874,7 +876,9 @@
         <v>4</v>
       </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="20"/>
       <c r="G11" s="12"/>
@@ -889,7 +893,9 @@
         <v>5</v>
       </c>
       <c r="C12" s="20"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="18">
+        <v>1</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="20"/>
       <c r="G12" s="12"/>
@@ -904,7 +910,9 @@
         <v>6</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="18"/>
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="20"/>
       <c r="G13" s="12"/>

--- a/1.2-SE-4347.501-DB/Grades.xlsx
+++ b/1.2-SE-4347.501-DB/Grades.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\1.2-SE-4347.501-DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDFall2018\1.2-SE-4347.501-DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6D03B0-AF1D-4914-9291-7179F4F01B44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5430" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6030" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,23 +417,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -470,23 +452,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,11 +627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +726,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
@@ -787,7 +752,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.27199999999999996</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -795,7 +760,7 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.28399999999999997</v>
+        <v>0.17200000000000001</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
@@ -808,7 +773,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22">
         <f>SUM(C7:H7)</f>
-        <v>0.90349999999999986</v>
+        <v>0.8115</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="5"/>
@@ -846,7 +811,9 @@
         <v>0.96</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="20">
+        <v>0.2</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="22"/>
@@ -860,7 +827,7 @@
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="18">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="20"/>
@@ -1073,7 +1040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1085,7 +1052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
